--- a/holidays/Отпуска 2018.xlsx
+++ b/holidays/Отпуска 2018.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maksim.Abramkin\IdeaProjects\java-projects\holidays\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
     <definedName name="Holidays_CRM_OnlyPeriods" localSheetId="0">'Отпуска департамента'!$A$1:$K$322</definedName>
     <definedName name="Holidays_CRM1" localSheetId="1">'Полная история согласования'!$A$1:$Q$1111</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,6 +33,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Максим</author>
+    <author>Абрамкин Максим Андреевич</author>
   </authors>
   <commentList>
     <comment ref="F3" authorId="0" shapeId="0">
@@ -85,6 +86,32 @@
           <t xml:space="preserve">
 Согласовал с Ваней А. - я "подвинусь" в отпуске с 12.09 на 12.11
 Т.е. его отпуск с 10.09.2018 можно согласовать, если нет других пересечений</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A268" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Абрамкин Максим Андреевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Сотрудник в отпуске</t>
         </r>
       </text>
     </comment>
@@ -980,8 +1007,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1045,6 +1072,29 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1072,7 +1122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1089,6 +1139,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1434,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="C191" sqref="C191"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4392,7 +4443,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="10" t="s">
         <v>113</v>
       </c>
       <c r="B87" t="s">
@@ -6995,7 +7046,7 @@
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="A166" s="10" t="s">
         <v>161</v>
       </c>
       <c r="B166" t="s">
@@ -7082,7 +7133,7 @@
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="A169" s="10" t="s">
         <v>165</v>
       </c>
       <c r="B169" t="s">
@@ -7239,7 +7290,7 @@
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="A174" s="10" t="s">
         <v>169</v>
       </c>
       <c r="B174" t="s">
@@ -10436,7 +10487,7 @@
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+      <c r="A268" s="10" t="s">
         <v>224</v>
       </c>
       <c r="B268" t="s">
@@ -12293,7 +12344,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
